--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.26463766184903</v>
+        <v>4.528161333333333</v>
       </c>
       <c r="H2">
-        <v>4.26463766184903</v>
+        <v>13.584484</v>
       </c>
       <c r="I2">
-        <v>0.3160035842658407</v>
+        <v>0.3225352762763812</v>
       </c>
       <c r="J2">
-        <v>0.3160035842658407</v>
+        <v>0.3225352762763812</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.987209777124626</v>
+        <v>1.102580333333333</v>
       </c>
       <c r="N2">
-        <v>0.987209777124626</v>
+        <v>3.307741</v>
       </c>
       <c r="O2">
-        <v>0.3604398922965448</v>
+        <v>0.3703441503267132</v>
       </c>
       <c r="P2">
-        <v>0.3604398922965448</v>
+        <v>0.3703441503267133</v>
       </c>
       <c r="Q2">
-        <v>4.210091995671267</v>
+        <v>4.992661632293777</v>
       </c>
       <c r="R2">
-        <v>4.210091995671267</v>
+        <v>44.933954690644</v>
       </c>
       <c r="S2">
-        <v>0.1139002978781017</v>
+        <v>0.1194490528429681</v>
       </c>
       <c r="T2">
-        <v>0.1139002978781017</v>
+        <v>0.1194490528429681</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.26463766184903</v>
+        <v>4.528161333333333</v>
       </c>
       <c r="H3">
-        <v>4.26463766184903</v>
+        <v>13.584484</v>
       </c>
       <c r="I3">
-        <v>0.3160035842658407</v>
+        <v>0.3225352762763812</v>
       </c>
       <c r="J3">
-        <v>0.3160035842658407</v>
+        <v>0.3225352762763812</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.083808788109</v>
+        <v>1.200765</v>
       </c>
       <c r="N3">
-        <v>1.083808788109</v>
+        <v>3.602295</v>
       </c>
       <c r="O3">
-        <v>0.3957091308332343</v>
+        <v>0.4033232592881871</v>
       </c>
       <c r="P3">
-        <v>0.3957091308332343</v>
+        <v>0.4033232592881872</v>
       </c>
       <c r="Q3">
-        <v>4.622051776012596</v>
+        <v>5.437257643420001</v>
       </c>
       <c r="R3">
-        <v>4.622051776012596</v>
+        <v>48.93531879078</v>
       </c>
       <c r="S3">
-        <v>0.1250455036700225</v>
+        <v>0.130085978863206</v>
       </c>
       <c r="T3">
-        <v>0.1250455036700225</v>
+        <v>0.130085978863206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.26463766184903</v>
+        <v>4.528161333333333</v>
       </c>
       <c r="H4">
-        <v>4.26463766184903</v>
+        <v>13.584484</v>
       </c>
       <c r="I4">
-        <v>0.3160035842658407</v>
+        <v>0.3225352762763812</v>
       </c>
       <c r="J4">
-        <v>0.3160035842658407</v>
+        <v>0.3225352762763812</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.66788408739623</v>
+        <v>0.6738323333333334</v>
       </c>
       <c r="N4">
-        <v>0.66788408739623</v>
+        <v>2.021497</v>
       </c>
       <c r="O4">
-        <v>0.2438509768702211</v>
+        <v>0.2263325903850996</v>
       </c>
       <c r="P4">
-        <v>0.2438509768702211</v>
+        <v>0.2263325903850996</v>
       </c>
       <c r="Q4">
-        <v>2.848283632859631</v>
+        <v>3.051221516949778</v>
       </c>
       <c r="R4">
-        <v>2.848283632859631</v>
+        <v>27.460993652548</v>
       </c>
       <c r="S4">
-        <v>0.07705778271771647</v>
+        <v>0.07300024457020714</v>
       </c>
       <c r="T4">
-        <v>0.07705778271771647</v>
+        <v>0.07300024457020714</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.10005712551939</v>
+        <v>6.270951666666666</v>
       </c>
       <c r="H5">
-        <v>6.10005712551939</v>
+        <v>18.812855</v>
       </c>
       <c r="I5">
-        <v>0.4520055556266734</v>
+        <v>0.4466720550425397</v>
       </c>
       <c r="J5">
-        <v>0.4520055556266734</v>
+        <v>0.4466720550425397</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.987209777124626</v>
+        <v>1.102580333333333</v>
       </c>
       <c r="N5">
-        <v>0.987209777124626</v>
+        <v>3.307741</v>
       </c>
       <c r="O5">
-        <v>0.3604398922965448</v>
+        <v>0.3703441503267132</v>
       </c>
       <c r="P5">
-        <v>0.3604398922965448</v>
+        <v>0.3703441503267133</v>
       </c>
       <c r="Q5">
-        <v>6.022036035331483</v>
+        <v>6.914227978950555</v>
       </c>
       <c r="R5">
-        <v>6.022036035331483</v>
+        <v>62.22805181055499</v>
       </c>
       <c r="S5">
-        <v>0.1629208337875181</v>
+        <v>0.1654223826994162</v>
       </c>
       <c r="T5">
-        <v>0.1629208337875181</v>
+        <v>0.1654223826994163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.10005712551939</v>
+        <v>6.270951666666666</v>
       </c>
       <c r="H6">
-        <v>6.10005712551939</v>
+        <v>18.812855</v>
       </c>
       <c r="I6">
-        <v>0.4520055556266734</v>
+        <v>0.4466720550425397</v>
       </c>
       <c r="J6">
-        <v>0.4520055556266734</v>
+        <v>0.4466720550425397</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.083808788109</v>
+        <v>1.200765</v>
       </c>
       <c r="N6">
-        <v>1.083808788109</v>
+        <v>3.602295</v>
       </c>
       <c r="O6">
-        <v>0.3957091308332343</v>
+        <v>0.4033232592881871</v>
       </c>
       <c r="P6">
-        <v>0.3957091308332343</v>
+        <v>0.4033232592881872</v>
       </c>
       <c r="Q6">
-        <v>6.61129552060484</v>
+        <v>7.529939278025</v>
       </c>
       <c r="R6">
-        <v>6.61129552060484</v>
+        <v>67.76945350222501</v>
       </c>
       <c r="S6">
-        <v>0.1788627255488241</v>
+        <v>0.1801532290727096</v>
       </c>
       <c r="T6">
-        <v>0.1788627255488241</v>
+        <v>0.1801532290727097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.10005712551939</v>
+        <v>6.270951666666666</v>
       </c>
       <c r="H7">
-        <v>6.10005712551939</v>
+        <v>18.812855</v>
       </c>
       <c r="I7">
-        <v>0.4520055556266734</v>
+        <v>0.4466720550425397</v>
       </c>
       <c r="J7">
-        <v>0.4520055556266734</v>
+        <v>0.4466720550425397</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.66788408739623</v>
+        <v>0.6738323333333334</v>
       </c>
       <c r="N7">
-        <v>0.66788408739623</v>
+        <v>2.021497</v>
       </c>
       <c r="O7">
-        <v>0.2438509768702211</v>
+        <v>0.2263325903850996</v>
       </c>
       <c r="P7">
-        <v>0.2438509768702211</v>
+        <v>0.2263325903850996</v>
       </c>
       <c r="Q7">
-        <v>4.074131086342388</v>
+        <v>4.225569993770556</v>
       </c>
       <c r="R7">
-        <v>4.074131086342388</v>
+        <v>38.030129943935</v>
       </c>
       <c r="S7">
-        <v>0.1102219962903314</v>
+        <v>0.1010964432704138</v>
       </c>
       <c r="T7">
-        <v>0.1102219962903314</v>
+        <v>0.1010964432704138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.13084094130663</v>
+        <v>3.240161666666667</v>
       </c>
       <c r="H8">
-        <v>3.13084094130663</v>
+        <v>9.720485</v>
       </c>
       <c r="I8">
-        <v>0.2319908601074858</v>
+        <v>0.2307926686810791</v>
       </c>
       <c r="J8">
-        <v>0.2319908601074858</v>
+        <v>0.2307926686810791</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.987209777124626</v>
+        <v>1.102580333333333</v>
       </c>
       <c r="N8">
-        <v>0.987209777124626</v>
+        <v>3.307741</v>
       </c>
       <c r="O8">
-        <v>0.3604398922965448</v>
+        <v>0.3703441503267132</v>
       </c>
       <c r="P8">
-        <v>0.3604398922965448</v>
+        <v>0.3703441503267133</v>
       </c>
       <c r="Q8">
-        <v>3.090796787879972</v>
+        <v>3.572538530487222</v>
       </c>
       <c r="R8">
-        <v>3.090796787879972</v>
+        <v>32.152846774385</v>
       </c>
       <c r="S8">
-        <v>0.08361876063092498</v>
+        <v>0.08547271478432887</v>
       </c>
       <c r="T8">
-        <v>0.08361876063092498</v>
+        <v>0.08547271478432887</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.13084094130663</v>
+        <v>3.240161666666667</v>
       </c>
       <c r="H9">
-        <v>3.13084094130663</v>
+        <v>9.720485</v>
       </c>
       <c r="I9">
-        <v>0.2319908601074858</v>
+        <v>0.2307926686810791</v>
       </c>
       <c r="J9">
-        <v>0.2319908601074858</v>
+        <v>0.2307926686810791</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.083808788109</v>
+        <v>1.200765</v>
       </c>
       <c r="N9">
-        <v>1.083808788109</v>
+        <v>3.602295</v>
       </c>
       <c r="O9">
-        <v>0.3957091308332343</v>
+        <v>0.4033232592881871</v>
       </c>
       <c r="P9">
-        <v>0.3957091308332343</v>
+        <v>0.4033232592881872</v>
       </c>
       <c r="Q9">
-        <v>3.39323292635958</v>
+        <v>3.890672723675</v>
       </c>
       <c r="R9">
-        <v>3.39323292635958</v>
+        <v>35.01605451307501</v>
       </c>
       <c r="S9">
-        <v>0.09180090161438764</v>
+        <v>0.09308405135227153</v>
       </c>
       <c r="T9">
-        <v>0.09180090161438764</v>
+        <v>0.09308405135227153</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.13084094130663</v>
+        <v>3.240161666666667</v>
       </c>
       <c r="H10">
-        <v>3.13084094130663</v>
+        <v>9.720485</v>
       </c>
       <c r="I10">
-        <v>0.2319908601074858</v>
+        <v>0.2307926686810791</v>
       </c>
       <c r="J10">
-        <v>0.2319908601074858</v>
+        <v>0.2307926686810791</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.66788408739623</v>
+        <v>0.6738323333333334</v>
       </c>
       <c r="N10">
-        <v>0.66788408739623</v>
+        <v>2.021497</v>
       </c>
       <c r="O10">
-        <v>0.2438509768702211</v>
+        <v>0.2263325903850996</v>
       </c>
       <c r="P10">
-        <v>0.2438509768702211</v>
+        <v>0.2263325903850996</v>
       </c>
       <c r="Q10">
-        <v>2.091038844867332</v>
+        <v>2.183325696227223</v>
       </c>
       <c r="R10">
-        <v>2.091038844867332</v>
+        <v>19.649931266045</v>
       </c>
       <c r="S10">
-        <v>0.0565711978621732</v>
+        <v>0.05223590254447869</v>
       </c>
       <c r="T10">
-        <v>0.0565711978621732</v>
+        <v>0.05223590254447869</v>
       </c>
     </row>
   </sheetData>
